--- a/Code/Results/Cases/Case_3_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.22723062595619</v>
+        <v>18.14140940046379</v>
       </c>
       <c r="C2">
-        <v>13.40975119891693</v>
+        <v>11.74475127611383</v>
       </c>
       <c r="D2">
-        <v>6.342884499761717</v>
+        <v>9.914670089302165</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>18.90711078604197</v>
+        <v>30.35817781966811</v>
       </c>
       <c r="G2">
-        <v>19.97201825251634</v>
+        <v>29.89473087637171</v>
       </c>
       <c r="H2">
-        <v>8.328384203736498</v>
+        <v>14.67751478693199</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.893713299494649</v>
+        <v>10.46819755913964</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.183686823191474</v>
+        <v>11.66141587602543</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.31008430186287</v>
+        <v>22.47356275402743</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.60789885074184</v>
+        <v>17.49512930106765</v>
       </c>
       <c r="C3">
-        <v>12.91707935921587</v>
+        <v>11.56519436279091</v>
       </c>
       <c r="D3">
-        <v>6.226039503848589</v>
+        <v>9.914261041400732</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.87512653835824</v>
+        <v>30.4943709402507</v>
       </c>
       <c r="G3">
-        <v>19.82634237089716</v>
+        <v>30.06292800558843</v>
       </c>
       <c r="H3">
-        <v>8.437331168285608</v>
+        <v>14.7442300333797</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.987367833723834</v>
+        <v>10.50328319840692</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.911159061881147</v>
+        <v>11.6245366695048</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.41943766385216</v>
+        <v>22.59231876496447</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.55367193670662</v>
+        <v>17.08616403992307</v>
       </c>
       <c r="C4">
-        <v>12.60673819486782</v>
+        <v>11.45413522548096</v>
       </c>
       <c r="D4">
-        <v>6.155686099947967</v>
+        <v>9.915284748456017</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.87899301345537</v>
+        <v>30.58628715720752</v>
       </c>
       <c r="G4">
-        <v>19.77353424123671</v>
+        <v>30.17779478386595</v>
       </c>
       <c r="H4">
-        <v>8.511051365142491</v>
+        <v>14.78797393332698</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.046674156837764</v>
+        <v>10.52595140273449</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.741228920692958</v>
+        <v>11.60302834398714</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.50315584617323</v>
+        <v>22.67098359697485</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.10890730090282</v>
+        <v>16.91667546289918</v>
       </c>
       <c r="C5">
-        <v>12.47845077277342</v>
+        <v>11.40871999684409</v>
       </c>
       <c r="D5">
-        <v>6.127394789955146</v>
+        <v>9.916023546687883</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.88624419505473</v>
+        <v>30.62582267168682</v>
       </c>
       <c r="G5">
-        <v>19.76085455610393</v>
+        <v>30.22750111956405</v>
       </c>
       <c r="H5">
-        <v>8.542739981260555</v>
+        <v>14.80649909307044</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.071302486980292</v>
+        <v>10.53547269181328</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.671420284244427</v>
+        <v>11.59455425153929</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.54122682952294</v>
+        <v>22.70448246725735</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.03413651041955</v>
+        <v>16.88836792472812</v>
       </c>
       <c r="C6">
-        <v>12.45704349729616</v>
+        <v>11.40117066782581</v>
       </c>
       <c r="D6">
-        <v>6.122720719240149</v>
+        <v>9.916165678151714</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.88778399767878</v>
+        <v>30.63251288359834</v>
       </c>
       <c r="G6">
-        <v>19.75927140215586</v>
+        <v>30.23592926964983</v>
       </c>
       <c r="H6">
-        <v>8.548099386982489</v>
+        <v>14.80961740988206</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.075420028742067</v>
+        <v>10.53707085970758</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.659797600802802</v>
+        <v>11.59316484002602</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.54778126878082</v>
+        <v>22.71013195096581</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.54773517199886</v>
+        <v>17.08388941323213</v>
       </c>
       <c r="C7">
-        <v>12.60501522728018</v>
+        <v>11.45352331702556</v>
       </c>
       <c r="D7">
-        <v>6.155302984087631</v>
+        <v>9.915293408552344</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.87906814226694</v>
+        <v>30.58681193819371</v>
       </c>
       <c r="G7">
-        <v>19.77332796558677</v>
+        <v>30.17845343431514</v>
       </c>
       <c r="H7">
-        <v>8.51147214847469</v>
+        <v>14.78822093921447</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.047004428848012</v>
+        <v>10.52607865996241</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.740289599501872</v>
+        <v>11.60291287564064</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.50365354707466</v>
+        <v>22.67142953868719</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.68127702314128</v>
+        <v>17.92121949698125</v>
       </c>
       <c r="C8">
-        <v>13.24158962195503</v>
+        <v>11.6830356408769</v>
       </c>
       <c r="D8">
-        <v>6.302325206655612</v>
+        <v>9.914265109866131</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.89106590843621</v>
+        <v>30.40341213725929</v>
       </c>
       <c r="G8">
-        <v>19.91397338524241</v>
+        <v>29.95030840661072</v>
       </c>
       <c r="H8">
-        <v>8.364489021803855</v>
+        <v>14.69994111181612</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.925635882857884</v>
+        <v>10.4800619774831</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.090311115956823</v>
+        <v>11.64846737826615</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.34421950222483</v>
+        <v>22.51331492326075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.39330265880188</v>
+        <v>19.45820809253776</v>
       </c>
       <c r="C9">
-        <v>14.42199706633072</v>
+        <v>12.12470245141216</v>
       </c>
       <c r="D9">
-        <v>6.600400312943182</v>
+        <v>9.922314945266463</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.11100490083763</v>
+        <v>30.10985049501152</v>
       </c>
       <c r="G9">
-        <v>20.49483754776704</v>
+        <v>29.59568829588758</v>
       </c>
       <c r="H9">
-        <v>8.133789693182457</v>
+        <v>14.54888657293744</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.701584128552243</v>
+        <v>10.39871682171028</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.752467908791143</v>
+        <v>11.74657572878298</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.17285592016083</v>
+        <v>22.24900101952358</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.83829670054077</v>
+        <v>20.51335592316653</v>
       </c>
       <c r="C10">
-        <v>15.24137534719669</v>
+        <v>12.4415094693615</v>
       </c>
       <c r="D10">
-        <v>6.823695170236288</v>
+        <v>9.934295706465814</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.40484015704809</v>
+        <v>29.9348357826732</v>
       </c>
       <c r="G10">
-        <v>21.12352659220115</v>
+        <v>29.39275057571173</v>
       </c>
       <c r="H10">
-        <v>8.004404248761571</v>
+        <v>14.45135646052431</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.544977306263908</v>
+        <v>10.34432243261253</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.219938127303498</v>
+        <v>11.82367979163881</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.1467015295334</v>
+        <v>22.0828901633131</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.89050293611856</v>
+        <v>20.97555491419136</v>
       </c>
       <c r="C11">
-        <v>15.60268667216559</v>
+        <v>12.58345037846499</v>
       </c>
       <c r="D11">
-        <v>6.925879978659218</v>
+        <v>9.941046432926017</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.56956753492725</v>
+        <v>29.86412478439616</v>
       </c>
       <c r="G11">
-        <v>21.45571832666543</v>
+        <v>29.31315015653858</v>
       </c>
       <c r="H11">
-        <v>7.955464555777264</v>
+        <v>14.40990852843186</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.475357412285251</v>
+        <v>10.3207320230515</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.427749336366841</v>
+        <v>11.85977361913809</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.1594064290813</v>
+        <v>22.01346116715323</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.28041218442825</v>
+        <v>21.14789841991029</v>
       </c>
       <c r="C12">
-        <v>15.73779355028685</v>
+        <v>12.6368460673621</v>
       </c>
       <c r="D12">
-        <v>6.964636132999921</v>
+        <v>9.943788157111646</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.6365783578933</v>
+        <v>29.83863492503324</v>
       </c>
       <c r="G12">
-        <v>21.58827561500313</v>
+        <v>29.28485294266675</v>
       </c>
       <c r="H12">
-        <v>7.938467822696073</v>
+        <v>14.39463320923325</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.449217858320625</v>
+        <v>10.31196404984409</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.505696183272942</v>
+        <v>11.87358134044042</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.16799472837869</v>
+        <v>21.98805611523642</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.19681647039329</v>
+        <v>21.11090219418308</v>
       </c>
       <c r="C13">
-        <v>15.70877307730674</v>
+        <v>12.6253627436381</v>
       </c>
       <c r="D13">
-        <v>6.956286987813064</v>
+        <v>9.943189460831187</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.62193792152688</v>
+        <v>29.84406728821661</v>
       </c>
       <c r="G13">
-        <v>21.55942478775384</v>
+        <v>29.29086490015247</v>
       </c>
       <c r="H13">
-        <v>7.942058258317809</v>
+        <v>14.39790433180278</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.454837665891834</v>
+        <v>10.31384505374139</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.488942863293303</v>
+        <v>11.8706014931698</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.16597333202818</v>
+        <v>21.99348807128205</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.92275157790088</v>
+        <v>20.98978809960123</v>
       </c>
       <c r="C14">
-        <v>15.61383670290795</v>
+        <v>12.58785060363051</v>
       </c>
       <c r="D14">
-        <v>6.929067392443478</v>
+        <v>9.94126829097976</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.57498683752977</v>
+        <v>29.86200189145836</v>
       </c>
       <c r="G14">
-        <v>21.46648781632127</v>
+        <v>29.31078504117542</v>
       </c>
       <c r="H14">
-        <v>7.954034795984858</v>
+        <v>14.40864339685411</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.473202459854251</v>
+        <v>10.32000736982025</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.43417729611609</v>
+        <v>11.86090682659151</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.16003593832735</v>
+        <v>22.01135329500545</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.75376980654206</v>
+        <v>20.91524967882819</v>
       </c>
       <c r="C15">
-        <v>15.55546036344103</v>
+        <v>12.56482600646688</v>
       </c>
       <c r="D15">
-        <v>6.912401798164181</v>
+        <v>9.940115608757537</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.54683578531183</v>
+        <v>29.87315512925376</v>
       </c>
       <c r="G15">
-        <v>21.41044483577485</v>
+        <v>29.32322756658514</v>
       </c>
       <c r="H15">
-        <v>7.961574125506861</v>
+        <v>14.41527610667861</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.484480319730039</v>
+        <v>10.32380345932324</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.400533199614575</v>
+        <v>11.85498656318723</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.15689804423296</v>
+        <v>22.02241178623174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.76833252649778</v>
+        <v>20.48278124189433</v>
       </c>
       <c r="C16">
-        <v>15.21752651096935</v>
+        <v>12.43218593176972</v>
       </c>
       <c r="D16">
-        <v>6.817027076124265</v>
+        <v>9.933880563130494</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.39471443701784</v>
+        <v>29.93963664312136</v>
       </c>
       <c r="G16">
-        <v>21.10275804018523</v>
+        <v>29.39821002142552</v>
       </c>
       <c r="H16">
-        <v>8.007811351675599</v>
+        <v>14.45412394867826</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.549558979288422</v>
+        <v>10.34588727829284</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.206255235142137</v>
+        <v>11.82134090466173</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.14638686737377</v>
+        <v>22.08755130968184</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.14848896322571</v>
+        <v>20.21282623517714</v>
       </c>
       <c r="C17">
-        <v>15.00723365294583</v>
+        <v>12.35022817813506</v>
       </c>
       <c r="D17">
-        <v>6.758653938330799</v>
+        <v>9.930387538363513</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.30947198927711</v>
+        <v>29.98270611419626</v>
       </c>
       <c r="G17">
-        <v>20.92593500507024</v>
+        <v>29.44747879551798</v>
       </c>
       <c r="H17">
-        <v>8.03879239333282</v>
+        <v>14.47870371884882</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.589891467871541</v>
+        <v>10.35973000391522</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.085793180245773</v>
+        <v>11.80095658966508</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.14641156195421</v>
+        <v>22.12908655638329</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.78631488696848</v>
+        <v>20.05588673890565</v>
       </c>
       <c r="C18">
-        <v>14.8852064544551</v>
+        <v>12.30288576852642</v>
       </c>
       <c r="D18">
-        <v>6.725137841338142</v>
+        <v>9.928500968986995</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.26335758844374</v>
+        <v>30.00831625467118</v>
       </c>
       <c r="G18">
-        <v>20.82857537780006</v>
+        <v>29.47701289328056</v>
       </c>
       <c r="H18">
-        <v>8.057538459568557</v>
+        <v>14.4931160796135</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.613242821966042</v>
+        <v>10.36780062411152</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.016053201875105</v>
+        <v>11.78932837956123</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.14872734610636</v>
+        <v>22.15355381464307</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.6627146306368</v>
+        <v>20.00246715395293</v>
       </c>
       <c r="C19">
-        <v>14.84370833793024</v>
+        <v>12.28682295595189</v>
       </c>
       <c r="D19">
-        <v>6.713800759609478</v>
+        <v>9.927883301754511</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.24823931044065</v>
+        <v>30.01713108685006</v>
       </c>
       <c r="G19">
-        <v>20.79635278983225</v>
+        <v>29.48721751522045</v>
       </c>
       <c r="H19">
-        <v>8.064041477437016</v>
+        <v>14.4980430313503</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.621175771198214</v>
+        <v>10.37055188039443</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.992364236433145</v>
+        <v>11.7854080107528</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.14989936605226</v>
+        <v>22.16193703834668</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.21505711405616</v>
+        <v>20.24173703066387</v>
       </c>
       <c r="C20">
-        <v>15.02973121924791</v>
+        <v>12.35897398183142</v>
       </c>
       <c r="D20">
-        <v>6.764861991070546</v>
+        <v>9.930746707500926</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.31824326306265</v>
+        <v>29.97803454706695</v>
       </c>
       <c r="G20">
-        <v>20.94430748196409</v>
+        <v>29.44211014297847</v>
       </c>
       <c r="H20">
-        <v>8.035397739388833</v>
+        <v>14.47605872457396</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.585582218159584</v>
+        <v>10.35824518246824</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.098663885373254</v>
+        <v>11.80311661541161</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.14616897998883</v>
+        <v>22.12460528365174</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.00348204601704</v>
+        <v>21.02543591094002</v>
       </c>
       <c r="C21">
-        <v>15.64176882931518</v>
+        <v>12.59887876269585</v>
       </c>
       <c r="D21">
-        <v>6.937060992456355</v>
+        <v>9.941827567948424</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.58865056553675</v>
+        <v>29.85669908826476</v>
       </c>
       <c r="G21">
-        <v>21.49360136467089</v>
+        <v>29.30488378762517</v>
       </c>
       <c r="H21">
-        <v>7.950474412763568</v>
+        <v>14.40547766834395</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.467802270114541</v>
+        <v>10.3181928703753</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.450283898635686</v>
+        <v>11.86375064627112</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.16167549804086</v>
+        <v>22.00608176326341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.12259830701702</v>
+        <v>21.52195425473571</v>
       </c>
       <c r="C22">
-        <v>16.03175724957275</v>
+        <v>12.75358773485035</v>
       </c>
       <c r="D22">
-        <v>7.049947653084695</v>
+        <v>9.950149190930734</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.79244082187654</v>
+        <v>29.7849030037151</v>
       </c>
       <c r="G22">
-        <v>21.8920445152567</v>
+        <v>29.22596421139951</v>
       </c>
       <c r="H22">
-        <v>7.903978809105255</v>
+        <v>14.36179779715629</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.392127390867929</v>
+        <v>10.29297896758686</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.675717494953853</v>
+        <v>11.9041899513632</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.19393356347601</v>
+        <v>21.93378708091132</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.529822701405</v>
+        <v>21.2584237253133</v>
       </c>
       <c r="C23">
-        <v>15.82454931809997</v>
+        <v>12.67122036713452</v>
       </c>
       <c r="D23">
-        <v>6.989674566697651</v>
+        <v>9.945609571045258</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.6811478605472</v>
+        <v>29.82253326199502</v>
       </c>
       <c r="G23">
-        <v>21.67575011294753</v>
+        <v>29.26709455254387</v>
       </c>
       <c r="H23">
-        <v>7.927932336421109</v>
+        <v>14.38488636198601</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.432400545254015</v>
+        <v>10.30634826114856</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.555813810321464</v>
+        <v>11.88253475101733</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.17461479689919</v>
+        <v>21.97189801145809</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.18497978118672</v>
+        <v>20.22867186643314</v>
       </c>
       <c r="C24">
-        <v>15.01956357448273</v>
+        <v>12.35502069793155</v>
       </c>
       <c r="D24">
-        <v>6.762055193236237</v>
+        <v>9.930583948196352</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.31426877310524</v>
+        <v>29.98014391869435</v>
       </c>
       <c r="G24">
-        <v>20.93598790656536</v>
+        <v>29.44453354667599</v>
       </c>
       <c r="H24">
-        <v>8.036929559402887</v>
+        <v>14.47725365081761</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.587529919471878</v>
+        <v>10.35891612052683</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.092846545532559</v>
+        <v>11.80213978380207</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.14627150057964</v>
+        <v>22.12662943546187</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.4390622898644</v>
+        <v>19.05477197518198</v>
       </c>
       <c r="C25">
-        <v>14.11066529924038</v>
+        <v>12.00638957754411</v>
       </c>
       <c r="D25">
-        <v>6.518891250097761</v>
+        <v>9.919066419287013</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.0291287165584</v>
+        <v>30.18215219574993</v>
       </c>
       <c r="G25">
-        <v>20.30319731363944</v>
+        <v>29.68158074521383</v>
       </c>
       <c r="H25">
-        <v>8.189543971833682</v>
+        <v>14.58738903843093</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.760753239326092</v>
+        <v>10.41977611538033</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.576402513472482</v>
+        <v>11.71912809978792</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.20269335812339</v>
+        <v>22.31558764326136</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_94/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_94/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14140940046379</v>
+        <v>24.22723062595621</v>
       </c>
       <c r="C2">
-        <v>11.74475127611383</v>
+        <v>13.40975119891704</v>
       </c>
       <c r="D2">
-        <v>9.914670089302165</v>
+        <v>6.342884499761797</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.35817781966811</v>
+        <v>18.90711078604189</v>
       </c>
       <c r="G2">
-        <v>29.89473087637171</v>
+        <v>19.97201825251613</v>
       </c>
       <c r="H2">
-        <v>14.67751478693199</v>
+        <v>8.328384203736491</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.46819755913964</v>
+        <v>5.893713299494582</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.66141587602543</v>
+        <v>8.18368682319144</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.47356275402743</v>
+        <v>13.31008430186275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.49512930106765</v>
+        <v>22.60789885074186</v>
       </c>
       <c r="C3">
-        <v>11.56519436279091</v>
+        <v>12.91707935921594</v>
       </c>
       <c r="D3">
-        <v>9.914261041400732</v>
+        <v>6.226039503848565</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.4943709402507</v>
+        <v>18.87512653835812</v>
       </c>
       <c r="G3">
-        <v>30.06292800558843</v>
+        <v>19.82634237089694</v>
       </c>
       <c r="H3">
-        <v>14.7442300333797</v>
+        <v>8.437331168285608</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.50328319840692</v>
+        <v>5.987367833723934</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.6245366695048</v>
+        <v>7.911159061881122</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.59231876496447</v>
+        <v>13.41943766385209</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.08616403992307</v>
+        <v>21.55367193670661</v>
       </c>
       <c r="C4">
-        <v>11.45413522548096</v>
+        <v>12.60673819486802</v>
       </c>
       <c r="D4">
-        <v>9.915284748456017</v>
+        <v>6.155686099948008</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.58628715720752</v>
+        <v>18.87899301345548</v>
       </c>
       <c r="G4">
-        <v>30.17779478386595</v>
+        <v>19.7735342412368</v>
       </c>
       <c r="H4">
-        <v>14.78797393332698</v>
+        <v>8.511051365142542</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.52595140273449</v>
+        <v>6.046674156837797</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.60302834398714</v>
+        <v>7.741228920692925</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.67098359697485</v>
+        <v>13.50315584617334</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.91667546289918</v>
+        <v>21.10890730090286</v>
       </c>
       <c r="C5">
-        <v>11.40871999684409</v>
+        <v>12.47845077277334</v>
       </c>
       <c r="D5">
-        <v>9.916023546687883</v>
+        <v>6.127394789955042</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.62582267168682</v>
+        <v>18.8862441950544</v>
       </c>
       <c r="G5">
-        <v>30.22750111956405</v>
+        <v>19.76085455610364</v>
       </c>
       <c r="H5">
-        <v>14.80649909307044</v>
+        <v>8.542739981260432</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.53547269181328</v>
+        <v>6.071302486980191</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.59455425153929</v>
+        <v>7.671420284244331</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.70448246725735</v>
+        <v>13.54122682952268</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.88836792472812</v>
+        <v>21.03413651041958</v>
       </c>
       <c r="C6">
-        <v>11.40117066782581</v>
+        <v>12.45704349729598</v>
       </c>
       <c r="D6">
-        <v>9.916165678151714</v>
+        <v>6.122720719240214</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.63251288359834</v>
+        <v>18.88778399767865</v>
       </c>
       <c r="G6">
-        <v>30.23592926964983</v>
+        <v>19.75927140215561</v>
       </c>
       <c r="H6">
-        <v>14.80961740988206</v>
+        <v>8.548099386982493</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.53707085970758</v>
+        <v>6.075420028741999</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.59316484002602</v>
+        <v>7.659797600802781</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.71013195096581</v>
+        <v>13.54778126878074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.08388941323213</v>
+        <v>21.5477351719989</v>
       </c>
       <c r="C7">
-        <v>11.45352331702556</v>
+        <v>12.60501522728022</v>
       </c>
       <c r="D7">
-        <v>9.915293408552344</v>
+        <v>6.155302984087572</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.58681193819371</v>
+        <v>18.87906814226687</v>
       </c>
       <c r="G7">
-        <v>30.17845343431514</v>
+        <v>19.77332796558664</v>
       </c>
       <c r="H7">
-        <v>14.78822093921447</v>
+        <v>8.511472148474686</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.52607865996241</v>
+        <v>6.047004428848076</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.60291287564064</v>
+        <v>7.740289599501909</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.67142953868719</v>
+        <v>13.50365354707457</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.92121949698125</v>
+        <v>23.68127702314126</v>
       </c>
       <c r="C8">
-        <v>11.6830356408769</v>
+        <v>13.24158962195504</v>
       </c>
       <c r="D8">
-        <v>9.914265109866131</v>
+        <v>6.302325206655535</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.40341213725929</v>
+        <v>18.89106590843611</v>
       </c>
       <c r="G8">
-        <v>29.95030840661072</v>
+        <v>19.91397338524222</v>
       </c>
       <c r="H8">
-        <v>14.69994111181612</v>
+        <v>8.364489021803864</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.4800619774831</v>
+        <v>5.925635882857986</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.64846737826615</v>
+        <v>8.090311115956814</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.51331492326075</v>
+        <v>13.3442195022248</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.45820809253776</v>
+        <v>27.39330265880193</v>
       </c>
       <c r="C9">
-        <v>12.12470245141216</v>
+        <v>14.42199706633074</v>
       </c>
       <c r="D9">
-        <v>9.922314945266463</v>
+        <v>6.600400312943163</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.10985049501152</v>
+        <v>19.11100490083748</v>
       </c>
       <c r="G9">
-        <v>29.59568829588758</v>
+        <v>20.49483754776681</v>
       </c>
       <c r="H9">
-        <v>14.54888657293744</v>
+        <v>8.133789693182443</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.39871682171028</v>
+        <v>5.701584128552242</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.74657572878298</v>
+        <v>8.752467908791111</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.24900101952358</v>
+        <v>13.17285592016072</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.51335592316653</v>
+        <v>29.83829670054077</v>
       </c>
       <c r="C10">
-        <v>12.4415094693615</v>
+        <v>15.24137534719662</v>
       </c>
       <c r="D10">
-        <v>9.934295706465814</v>
+        <v>6.823695170236276</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.9348357826732</v>
+        <v>19.4048401570481</v>
       </c>
       <c r="G10">
-        <v>29.39275057571173</v>
+        <v>21.12352659220124</v>
       </c>
       <c r="H10">
-        <v>14.45135646052431</v>
+        <v>8.004404248761567</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.34432243261253</v>
+        <v>5.544977306263908</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.82367979163881</v>
+        <v>9.219938127303532</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.0828901633131</v>
+        <v>13.14670152953343</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.97555491419136</v>
+        <v>30.89050293611861</v>
       </c>
       <c r="C11">
-        <v>12.58345037846499</v>
+        <v>15.60268667216556</v>
       </c>
       <c r="D11">
-        <v>9.941046432926017</v>
+        <v>6.925879978659225</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.86412478439616</v>
+        <v>19.56956753492722</v>
       </c>
       <c r="G11">
-        <v>29.31315015653858</v>
+        <v>21.45571832666538</v>
       </c>
       <c r="H11">
-        <v>14.40990852843186</v>
+        <v>7.955464555777253</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.3207320230515</v>
+        <v>5.475357412285415</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.85977361913809</v>
+        <v>9.427749336366901</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.01346116715323</v>
+        <v>13.15940642908127</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.14789841991029</v>
+        <v>31.28041218442825</v>
       </c>
       <c r="C12">
-        <v>12.6368460673621</v>
+        <v>15.73779355028704</v>
       </c>
       <c r="D12">
-        <v>9.943788157111646</v>
+        <v>6.964636132999935</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.83863492503324</v>
+        <v>19.63657835789314</v>
       </c>
       <c r="G12">
-        <v>29.28485294266675</v>
+        <v>21.58827561500292</v>
       </c>
       <c r="H12">
-        <v>14.39463320923325</v>
+        <v>7.938467822696012</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.31196404984409</v>
+        <v>5.449217858320661</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.87358134044042</v>
+        <v>9.505696183272931</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.98805611523642</v>
+        <v>13.16799472837855</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.11090219418308</v>
+        <v>31.19681647039329</v>
       </c>
       <c r="C13">
-        <v>12.6253627436381</v>
+        <v>15.70877307730648</v>
       </c>
       <c r="D13">
-        <v>9.943189460831187</v>
+        <v>6.956286987813044</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.84406728821661</v>
+        <v>19.62193792152686</v>
       </c>
       <c r="G13">
-        <v>29.29086490015247</v>
+        <v>21.55942478775388</v>
       </c>
       <c r="H13">
-        <v>14.39790433180278</v>
+        <v>7.942058258317819</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.31384505374139</v>
+        <v>5.454837665891834</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.8706014931698</v>
+        <v>9.488942863293314</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.99348807128205</v>
+        <v>13.16597333202819</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.98978809960123</v>
+        <v>30.92275157790101</v>
       </c>
       <c r="C14">
-        <v>12.58785060363051</v>
+        <v>15.61383670290794</v>
       </c>
       <c r="D14">
-        <v>9.94126829097976</v>
+        <v>6.92906739244347</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.86200189145836</v>
+        <v>19.5749868375296</v>
       </c>
       <c r="G14">
-        <v>29.31078504117542</v>
+        <v>21.46648781632109</v>
       </c>
       <c r="H14">
-        <v>14.40864339685411</v>
+        <v>7.954034795984705</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.32000736982025</v>
+        <v>5.473202459854252</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.86090682659151</v>
+        <v>9.434177296116061</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.01135329500545</v>
+        <v>13.16003593832718</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.91524967882819</v>
+        <v>30.75376980654203</v>
       </c>
       <c r="C15">
-        <v>12.56482600646688</v>
+        <v>15.5554603634412</v>
       </c>
       <c r="D15">
-        <v>9.940115608757537</v>
+        <v>6.912401798164263</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.87315512925376</v>
+        <v>19.54683578531182</v>
       </c>
       <c r="G15">
-        <v>29.32322756658514</v>
+        <v>21.41044483577479</v>
       </c>
       <c r="H15">
-        <v>14.41527610667861</v>
+        <v>7.961574125506861</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.32380345932324</v>
+        <v>5.484480319730105</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.85498656318723</v>
+        <v>9.400533199614619</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.02241178623174</v>
+        <v>13.15689804423291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.48278124189433</v>
+        <v>29.76833252649778</v>
       </c>
       <c r="C16">
-        <v>12.43218593176972</v>
+        <v>15.21752651096934</v>
       </c>
       <c r="D16">
-        <v>9.933880563130494</v>
+        <v>6.817027076124152</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.93963664312136</v>
+        <v>19.39471443701775</v>
       </c>
       <c r="G16">
-        <v>29.39821002142552</v>
+        <v>21.10275804018515</v>
       </c>
       <c r="H16">
-        <v>14.45412394867826</v>
+        <v>8.007811351675594</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.34588727829284</v>
+        <v>5.549558979288521</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.82134090466173</v>
+        <v>9.206255235142143</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.08755130968184</v>
+        <v>13.14638686737374</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.21282623517714</v>
+        <v>29.14848896322568</v>
       </c>
       <c r="C17">
-        <v>12.35022817813506</v>
+        <v>15.0072336529458</v>
       </c>
       <c r="D17">
-        <v>9.930387538363513</v>
+        <v>6.758653938330807</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.98270611419626</v>
+        <v>19.30947198927713</v>
       </c>
       <c r="G17">
-        <v>29.44747879551798</v>
+        <v>20.92593500507027</v>
       </c>
       <c r="H17">
-        <v>14.47870371884882</v>
+        <v>8.038792393332834</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.35973000391522</v>
+        <v>5.589891467871542</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.80095658966508</v>
+        <v>9.085793180245764</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.12908655638329</v>
+        <v>13.14641156195423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.05588673890565</v>
+        <v>28.78631488696847</v>
       </c>
       <c r="C18">
-        <v>12.30288576852642</v>
+        <v>14.88520645445506</v>
       </c>
       <c r="D18">
-        <v>9.928500968986995</v>
+        <v>6.725137841338258</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.00831625467118</v>
+        <v>19.26335758844387</v>
       </c>
       <c r="G18">
-        <v>29.47701289328056</v>
+        <v>20.82857537780011</v>
       </c>
       <c r="H18">
-        <v>14.4931160796135</v>
+        <v>8.057538459568557</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.36780062411152</v>
+        <v>5.613242821966042</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.78932837956123</v>
+        <v>9.016053201875186</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.15355381464307</v>
+        <v>13.14872734610641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.00246715395293</v>
+        <v>28.66271463063672</v>
       </c>
       <c r="C19">
-        <v>12.28682295595189</v>
+        <v>14.84370833793034</v>
       </c>
       <c r="D19">
-        <v>9.927883301754511</v>
+        <v>6.713800759609557</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.01713108685006</v>
+        <v>19.24823931044102</v>
       </c>
       <c r="G19">
-        <v>29.48721751522045</v>
+        <v>20.79635278983263</v>
       </c>
       <c r="H19">
-        <v>14.4980430313503</v>
+        <v>8.064041477437161</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.37055188039443</v>
+        <v>5.62117577119818</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.7854080107528</v>
+        <v>8.992364236433142</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.16193703834668</v>
+        <v>13.14989936605253</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.24173703066387</v>
+        <v>29.2150571140561</v>
       </c>
       <c r="C20">
-        <v>12.35897398183142</v>
+        <v>15.02973121924796</v>
       </c>
       <c r="D20">
-        <v>9.930746707500926</v>
+        <v>6.764861991070445</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.97803454706695</v>
+        <v>19.31824326306265</v>
       </c>
       <c r="G20">
-        <v>29.44211014297847</v>
+        <v>20.94430748196415</v>
       </c>
       <c r="H20">
-        <v>14.47605872457396</v>
+        <v>8.035397739388879</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.35824518246824</v>
+        <v>5.585582218159614</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.80311661541161</v>
+        <v>9.098663885373245</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.12460528365174</v>
+        <v>13.14616897998888</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.02543591094002</v>
+        <v>31.00348204601707</v>
       </c>
       <c r="C21">
-        <v>12.59887876269585</v>
+        <v>15.6417688293152</v>
       </c>
       <c r="D21">
-        <v>9.941827567948424</v>
+        <v>6.937060992456266</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.85669908826476</v>
+        <v>19.58865056553663</v>
       </c>
       <c r="G21">
-        <v>29.30488378762517</v>
+        <v>21.49360136467083</v>
       </c>
       <c r="H21">
-        <v>14.40547766834395</v>
+        <v>7.950474412763564</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.3181928703753</v>
+        <v>5.467802270114539</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.86375064627112</v>
+        <v>9.450283898635682</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.00608176326341</v>
+        <v>13.1616754980408</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.52195425473571</v>
+        <v>32.12259830701701</v>
       </c>
       <c r="C22">
-        <v>12.75358773485035</v>
+        <v>16.03175724957265</v>
       </c>
       <c r="D22">
-        <v>9.950149190930734</v>
+        <v>7.049947653084547</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.7849030037151</v>
+        <v>19.79244082187652</v>
       </c>
       <c r="G22">
-        <v>29.22596421139951</v>
+        <v>21.89204451525671</v>
       </c>
       <c r="H22">
-        <v>14.36179779715629</v>
+        <v>7.903978809105255</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.29297896758686</v>
+        <v>5.392127390868094</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.9041899513632</v>
+        <v>9.675717494953904</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.93378708091132</v>
+        <v>13.19393356347605</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.2584237253133</v>
+        <v>31.52982270140502</v>
       </c>
       <c r="C23">
-        <v>12.67122036713452</v>
+        <v>15.82454931810002</v>
       </c>
       <c r="D23">
-        <v>9.945609571045258</v>
+        <v>6.989674566697558</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.82253326199502</v>
+        <v>19.68114786054715</v>
       </c>
       <c r="G23">
-        <v>29.26709455254387</v>
+        <v>21.67575011294755</v>
       </c>
       <c r="H23">
-        <v>14.38488636198601</v>
+        <v>7.927932336421109</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.30634826114856</v>
+        <v>5.432400545254046</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.88253475101733</v>
+        <v>9.555813810321451</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.97189801145809</v>
+        <v>13.17461479689914</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.22867186643314</v>
+        <v>29.18497978118668</v>
       </c>
       <c r="C24">
-        <v>12.35502069793155</v>
+        <v>15.01956357448269</v>
       </c>
       <c r="D24">
-        <v>9.930583948196352</v>
+        <v>6.762055193236255</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.98014391869435</v>
+        <v>19.31426877310532</v>
       </c>
       <c r="G24">
-        <v>29.44453354667599</v>
+        <v>20.93598790656541</v>
       </c>
       <c r="H24">
-        <v>14.47725365081761</v>
+        <v>8.036929559402992</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.35891612052683</v>
+        <v>5.587529919471947</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.80213978380207</v>
+        <v>9.092846545532565</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.12662943546187</v>
+        <v>13.14627150057972</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.05477197518198</v>
+        <v>26.43906228986435</v>
       </c>
       <c r="C25">
-        <v>12.00638957754411</v>
+        <v>14.11066529924045</v>
       </c>
       <c r="D25">
-        <v>9.919066419287013</v>
+        <v>6.518891250097759</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.18215219574993</v>
+        <v>19.02912871655854</v>
       </c>
       <c r="G25">
-        <v>29.68158074521383</v>
+        <v>20.30319731363961</v>
       </c>
       <c r="H25">
-        <v>14.58738903843093</v>
+        <v>8.189543971833789</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.41977611538033</v>
+        <v>5.760753239326093</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.71912809978792</v>
+        <v>8.576402513472432</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.31558764326136</v>
+        <v>13.20269335812352</v>
       </c>
     </row>
   </sheetData>
